--- a/mcc_gross_margin.xlsx
+++ b/mcc_gross_margin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29115"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptoplongs.vn\Documents\.SCA\Python\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368DFC8E-1E3E-4766-8F5F-07F7A42294E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B3D0AC-243E-4603-A127-ED615747CC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="178">
   <si>
     <t>mcc</t>
   </si>
@@ -564,48 +564,17 @@
     <t>Total Market (without financials)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Source: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/margin.html</t>
-    </r>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Source: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/margin.html</t>
-    </r>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/margin.html</t>
+  </si>
+  <si>
+    <t>Source:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,32 +644,8 @@
     <font>
       <i/>
       <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -788,7 +733,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -827,9 +772,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -843,17 +790,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1164,11 +1104,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1179,24 +1119,21 @@
     <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1148,7 @@
         <v>0.328957975394087</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1226,7 +1163,7 @@
         <v>0.328957975394087</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1241,7 +1178,7 @@
         <v>0.328957975394087</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1256,7 +1193,7 @@
         <v>0.26094166508627481</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1271,7 +1208,7 @@
         <v>0.26094166508627481</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +1223,7 @@
         <v>0.36831615708312943</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1301,7 +1238,7 @@
         <v>0.38248599747567891</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1316,7 +1253,7 @@
         <v>0.13157358009062298</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1327,7 +1264,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1342,7 +1279,7 @@
         <v>0.37476823790032537</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1357,7 +1294,7 @@
         <v>0.54277519534785756</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1372,7 +1309,7 @@
         <v>0.47102861749068226</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1387,7 +1324,7 @@
         <v>0.61367356844805665</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1402,7 +1339,7 @@
         <v>0.61367356844805665</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1580,15 +1517,6 @@
       <c r="D27">
         <f>VLOOKUP(C27,'Industry Averages'!$A$3:$C$96,3,0)</f>
         <v>0.44528897121871214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="25">
-        <f>AVERAGE(D2:D27)*25%</f>
-        <v>0.10178956905892837</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1531,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8203,10 +8131,12 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100" s="17" t="s">
+      <c r="A100" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B100" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="B100" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8214,6 +8144,9 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:S1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B100" r:id="rId1" xr:uid="{EB501FD5-26DC-4EDC-9615-3461C10C734C}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
